--- a/game.xlsx
+++ b/game.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Feuille1" state="visible" r:id="rId4"/>
+    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nom</t>
   </si>
@@ -21,42 +24,18 @@
   <si>
     <t>Resultat</t>
   </si>
-  <si>
-    <t>Celis</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>-7%</t>
-  </si>
-  <si>
-    <t>Cel</t>
-  </si>
-  <si>
-    <t>1230</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>Porte</t>
-  </si>
-  <si>
-    <t>-9%</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -420,10 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,41 +418,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/game.xlsx
+++ b/game.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5916"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Feuille1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Nom</t>
   </si>
@@ -23,19 +23,151 @@
   </si>
   <si>
     <t>Resultat</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>2133</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>22345</t>
+  </si>
+  <si>
+    <t>-1%</t>
+  </si>
+  <si>
+    <t>gf</t>
+  </si>
+  <si>
+    <t>5646</t>
+  </si>
+  <si>
+    <t>-10%</t>
+  </si>
+  <si>
+    <t>pml</t>
+  </si>
+  <si>
+    <t>25385</t>
+  </si>
+  <si>
+    <t>sgg</t>
+  </si>
+  <si>
+    <t>5462325</t>
+  </si>
+  <si>
+    <t>-20%</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>2456</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>45626</t>
+  </si>
+  <si>
+    <t>4512</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>26362</t>
+  </si>
+  <si>
+    <t>-3%</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>-9%</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>fgs</t>
+  </si>
+  <si>
+    <t>1236</t>
+  </si>
+  <si>
+    <t>-4%</t>
+  </si>
+  <si>
+    <t>fg</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>-6%</t>
+  </si>
+  <si>
+    <t>gkds</t>
+  </si>
+  <si>
+    <t>-5%</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>1265</t>
+  </si>
+  <si>
+    <t>fgqd</t>
+  </si>
+  <si>
+    <t>41264</t>
+  </si>
+  <si>
+    <t>fqs</t>
+  </si>
+  <si>
+    <t>fqsd</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>-30%</t>
+  </si>
+  <si>
+    <t>gs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,15 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" defaultColWidth="8.88671875" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +550,225 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/game.xlsx
+++ b/game.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Nom</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>gs</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>tye</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>-7%</t>
+  </si>
+  <si>
+    <t>456</t>
   </si>
 </sst>
 </file>
@@ -531,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="C2" sqref="C2"/>
@@ -767,6 +782,39 @@
         <v>45</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
